--- a/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
+++ b/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -269,44 +269,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "cunsume",
-"mobileNoList": [
-"58e172616c1a6a6b6e033542d2604335"
-,"4ae7e6c6a479587aecd90dc353205432",""
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "cunsume",
-            "mobileNoMd": "4ae7e6c6a479587aecd90dc353205432",
-            "tenantUserIds": [
-                "000001",
-                "000003"
-            ]
-        },
-        {
-            "tenantId": "cunsume",
-            "mobileNoMd": "58e172616c1a6a6b6e033542d2604335",
-            "tenantUserIds": [
-                "000002",
-                "000004",
-                "000005",
-                "000006"
-            ]
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-mobileNoList，部分存在，部分不存在</t>
     <rPh sb="0" eb="1">
       <t>bi'chuan</t>
@@ -326,36 +288,6 @@
     <rPh sb="25" eb="26">
       <t>bu'cun'zai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "cunsume",
-"mobileNoList": [
-"58e172616c1a6a6b6e033542d2604335"
-,"f87a900fea1eaaa6cca908c06ec83fb0",""
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "cunsume",
-            "mobileNoMd": "58e172616c1a6a6b6e033542d2604335",
-            "tenantUserIds": [
-                "000002",
-                "000004",
-                "000005",
-                "000006"
-            ]
-        }
-    ]
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -402,12 +334,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>必传参数-mobileNoList，超过1000条</t>
+    <rPh sb="18" eb="19">
+      <t>chao'guo</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>tiao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "tenantId": "consume",
 "mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9",
-"","3354045a397621cd92406f1f98cde292"
-]
+"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -439,20 +379,133 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>必传参数-mobileNoList，超过1000条</t>
-    <rPh sb="18" eb="19">
-      <t>chao'guo</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>tiao</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
+    <t>{
+"tenantId": "",
 "mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
+"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-mobileNoList为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "123",
+"mobileNoList": []
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [[]]; codes [Size.batchQueryIdByMobileMdReq.mobileNoList,Size.mobileNoList,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList],2147483647,1]; default message [手机号MD5值列表长度至少为1]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"mobileNoList": [
+"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数缺失-mobileNoList</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cna'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"tenantId": "consume"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [null]; codes [NotNull.batchQueryIdByMobileMdReq.mobileNoList,NotNull.mobileNoList,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList]]; default message [手机号MD5值列表不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-002</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-003</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-004</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-005</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-006</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-007</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-008</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-009</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554",""
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554"
+]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -463,20 +516,17 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "consume",
-            "mobileNoMd": "6ebe76c9fb411be97b3b0d48b791a7c9",
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
             "tenantUserIds": [
-                "000011"
+                "000115"
             ]
         },
         {
-            "tenantId": "consume",
-            "mobileNoMd": "3354045a397621cd92406f1f98cde292",
+            "tenantId": "1001",
+            "mobileNoMd": "9337473d97849183519161fea2bfd554",
             "tenantUserIds": [
-                "000031",
-                "000032",
-                "000034",
-                "000035"
+                "000113"
             ]
         }
     ]
@@ -485,114 +535,81 @@
   </si>
   <si>
     <t>{
-"tenantId": "",
+"tenantId": "1001",
 "mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd333",""
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
+            "tenantUserIds": [
+                "000115"
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
+            "tenantUserIds": [
+                "000115"
+            ]
+        },
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "9337473d97849183519161fea2bfd554",
+            "tenantUserIds": [
+                "000113"
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-必传参数-mobileNoList为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "123",
-"mobileNoList": []
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [[]]; codes [Size.batchQueryIdByMobileMdReq.mobileNoList,Size.mobileNoList,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList],2147483647,1]; default message [手机号MD5值列表长度至少为1]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数缺失-mobileNoList</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cna'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'shi</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-"tenantId": "consume"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [null]; codes [NotNull.batchQueryIdByMobileMdReq.mobileNoList,NotNull.mobileNoList,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList]]; default message [手机号MD5值列表不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-001</t>
+insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-002</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-003</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-004</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-005</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-006</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-007</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-008</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-009</t>
   </si>
 </sst>
 </file>
@@ -712,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -785,6 +802,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1072,7 +1092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1082,7 +1102,7 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
@@ -1146,20 +1166,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="63.65" customHeight="1">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="195" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1170,11 +1194,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
@@ -1184,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1203,24 +1227,24 @@
         <v>14</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="22" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="45.65" customHeight="1">
+    <row r="4" spans="1:16" ht="82.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1230,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="22" t="s">
@@ -1249,10 +1273,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1262,17 +1286,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22" t="s">
-        <v>34</v>
+      <c r="K5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -1281,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1300,11 +1324,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1313,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>20</v>
@@ -1326,17 +1350,17 @@
         <v>16</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1345,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1364,11 +1388,11 @@
         <v>14</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -1377,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>15</v>
@@ -1390,17 +1414,17 @@
         <v>16</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -1409,10 +1433,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1422,17 +1446,17 @@
         <v>16</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N10" s="15"/>
     </row>

--- a/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
+++ b/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -345,11 +345,161 @@
   </si>
   <si>
     <t>{
-"tenantId": "consume",
+"tenantId": "",
 "mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292","6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-mobileNoList为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "123",
+"mobileNoList": []
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [[]]; codes [Size.batchQueryIdByMobileMdReq.mobileNoList,Size.mobileNoList,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList],2147483647,1]; default message [手机号MD5值列表长度至少为1]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"mobileNoList": [
+"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数缺失-mobileNoList</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cna'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"tenantId": "consume"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [null]; codes [NotNull.batchQueryIdByMobileMdReq.mobileNoList,NotNull.mobileNoList,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList]]; default message [手机号MD5值列表不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-002</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-003</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-004</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-005</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-006</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-007</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-008</t>
+  </si>
+  <si>
+    <t>userBatchQueryIdByMobileMd-009</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554"
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd333",""
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -358,20 +508,10 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "consume",
-            "mobileNoMd": "6ebe76c9fb411be97b3b0d48b791a7c9",
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
             "tenantUserIds": [
-                "000011"
-            ]
-        },
-        {
-            "tenantId": "consume",
-            "mobileNoMd": "3354045a397621cd92406f1f98cde292",
-            "tenantUserIds": [
-                "000031",
-                "000032",
-                "000034",
-                "000035"
+                "000115"
             ]
         }
     ]
@@ -379,115 +519,21 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "",
-"mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
-必传参数-mobileNoList为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "123",
-"mobileNoList": []
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [[]]; codes [Size.batchQueryIdByMobileMdReq.mobileNoList,Size.mobileNoList,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList],2147483647,1]; default message [手机号MD5值列表长度至少为1]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"mobileNoList": [
-"6ebe76c9fb411be97b3b0d48b791a7c9","3354045a397621cd92406f1f98cde292"]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryIdByMobileMdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数缺失-mobileNoList</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cna'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'shi</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-"tenantId": "consume"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryIdByMobileMd(***.web.request.BatchQueryIdByMobileMdReq): [Field error in object 'batchQueryIdByMobileMdReq' on field 'mobileNoList': rejected value [null]; codes [NotNull.batchQueryIdByMobileMdReq.mobileNoList,NotNull.mobileNoList,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryIdByMobileMdReq.mobileNoList,mobileNoList]; arguments []; default message [mobileNoList]]; default message [手机号MD5值列表不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-001</t>
+insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>userBatchQueryIdByMobileMd-002</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-003</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-004</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-005</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-006</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-007</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-008</t>
-  </si>
-  <si>
-    <t>userBatchQueryIdByMobileMd-009</t>
+    <t>delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -495,16 +541,6 @@
 "mobileNoList": [
 "b7a2c3b25c9441b0a38d0a874ace268b"
 ,"9337473d97849183519161fea2bfd554",""
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"mobileNoList": [
-"b7a2c3b25c9441b0a38d0a874ace268b"
-,"9337473d97849183519161fea2bfd554"
 ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -535,33 +571,6 @@
   </si>
   <si>
     <t>{
-"tenantId": "1001",
-"mobileNoList": [
-"b7a2c3b25c9441b0a38d0a874ace268b"
-,"9337473d97849183519161fea2bfd333",""
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
-            "tenantUserIds": [
-                "000115"
-            ]
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -585,31 +594,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
+            "tenantUserIds": [
+                "000115"
+            ]
+        },
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "9337473d97849183519161fea2bfd554",
+            "tenantUserIds": [
+                "000113"
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554","b7a2c3b25c9441b0a38d0a874ace268b"
+,"9337473d97849183519161fea2bfd554"
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1090,9 +1143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1102,7 +1155,7 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="8" customWidth="1"/>
+    <col min="6" max="6" width="64.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
@@ -1171,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>22</v>
@@ -1179,10 +1232,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
@@ -1194,11 +1247,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
@@ -1208,15 +1261,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1227,11 +1284,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="11"/>
@@ -1241,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>25</v>
@@ -1273,15 +1330,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1292,28 +1353,32 @@
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="409.5">
+    <row r="6" spans="1:16" ht="284.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1324,11 +1389,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L6" s="21"/>
-      <c r="M6" s="22" t="s">
-        <v>31</v>
+      <c r="M6" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1337,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>20</v>
@@ -1356,11 +1421,11 @@
         <v>14</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1369,10 +1434,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1388,11 +1453,11 @@
         <v>14</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -1401,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>15</v>
@@ -1420,11 +1485,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -1433,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1452,11 +1517,11 @@
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10" s="15"/>
     </row>

--- a/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
+++ b/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchQueryIdByMobileMd" sheetId="2" r:id="rId1"/>
@@ -486,22 +486,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -517,16 +501,6 @@
     ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-insert into user_info_item values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
@@ -663,6 +637,31 @@
 ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1143,9 +1142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1219,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="195" customHeight="1">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="395" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1231,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>51</v>
@@ -1251,12 +1250,12 @@
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="79.75" customHeight="1">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="209" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1269,10 +1268,10 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>16</v>
@@ -1288,7 +1287,7 @@
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="11"/>
@@ -1325,7 +1324,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="82.75" customHeight="1">
+    <row r="5" spans="1:16" ht="312.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1337,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>51</v>
@@ -1353,11 +1352,11 @@
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -1374,7 +1373,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>51</v>
@@ -1389,11 +1388,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" s="9"/>
     </row>

--- a/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
+++ b/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userBatchQueryIdByMobileMd/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10380"/>
+    <workbookView xWindow="3700" yWindow="-19620" windowWidth="34300" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchQueryIdByMobileMd" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,16 +322,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "cunsume",
-"mobileNoList": [
-"a637c052baa63089bbc674412f8b5ea1"
-,"f87a900fea1eaaa6cca908c06ec83fb0"
-]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-mobileNoList，部分存在，部分为空</t>
     <rPh sb="0" eb="1">
       <t>bi'chuan</t>
@@ -367,13 +368,6 @@
   </si>
   <si>
     <t>{
-"tenantId": "123",
-"mobileNoList": []
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
@@ -408,13 +402,6 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-{
-"tenantId": "consume"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -473,41 +460,6 @@
 ]
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
-            "tenantUserIds": [
-                "000115"
-            ]
-        }
-    ]
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000115  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000115 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -663,12 +615,69 @@
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "mobileNoMd": "b7a2c3b25c9441b0a38d0a874ace268b",
+            "tenantUserIds": [
+                "000115"
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"
+</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": [
+"a637c052baa63089bbc674412f8b5ea1"
+,"f87a900fea1eaaa6cca908c06ec83fb0"
+]
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"mobileNoList": []
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"tenantId": "1001"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,33 +1151,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="64.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="14" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="83.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,12 +1227,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="395" customHeight="1">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="395" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>22</v>
@@ -1231,10 +1240,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
@@ -1246,21 +1255,21 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="209" customHeight="1">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="209" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -1268,10 +1277,10 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>16</v>
@@ -1283,21 +1292,21 @@
         <v>14</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="82.5" customHeight="1">
+    <row r="4" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>25</v>
@@ -1316,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="22" t="s">
@@ -1324,23 +1333,23 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="312.5" customHeight="1">
+    <row r="5" spans="1:16" ht="312.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
@@ -1352,31 +1361,31 @@
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="284.5" customHeight="1">
+    <row r="6" spans="1:16" ht="284.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
@@ -1388,20 +1397,20 @@
         <v>14</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="100.25" customHeight="1">
+    <row r="7" spans="1:16" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>20</v>
@@ -1420,23 +1429,23 @@
         <v>14</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="103.25" customHeight="1">
+    <row r="8" spans="1:16" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1452,20 +1461,20 @@
         <v>14</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="89.4" customHeight="1">
+    <row r="9" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>15</v>
@@ -1484,23 +1493,23 @@
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="77.400000000000006" customHeight="1">
+    <row r="10" spans="1:16" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1516,11 +1525,11 @@
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N10" s="15"/>
     </row>

--- a/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
+++ b/src/main/resources/caseconf/userBatchQueryIdByMobileMd/Case_userBatchQueryIdByMobileMd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="-19620" windowWidth="34300" windowHeight="18480"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchQueryIdByMobileMd" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -671,6 +671,33 @@
 "tenantId": "1001"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683391,"699297352645222400","1001","000115","name","张*","9ctOb7tGviE=","a5edfe0a9a1d877ab9401e45daddf98e","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683401,"699297352645222400","1001","000115","mobileNo","098*6543","uN9TtamaVfAqQHAG8thD9Q==","0e5cb1ac112e78a5fa0fdcc1f015bd7c","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683411,"699297352645222400","1001","000115","certNo","1234*6789","ok9zcZ5kz9/rH8OW2Lwb9A==","6587ad7fdd9c5923d78eb0046ad59dc0","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100353683421,"699297352645222400","1001","000115","email","3234***@126.com","6PLyj4Vo6DrbBL6Rw2JIJA==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699297352645222400","1001","000115",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViQmhzV2pZdmZIbkFQUU1BQ1pGY0lpYUJFTHQxd1YwbkJBQUFBQUFBQUFBRG05WDU2ZDhVa2VvTUtqT3NkS2l0dC95amM5U3V5ZXlYVGdQaVVKeFdkYjYzT21iSmM1aDd5NWhtWW5PU3FDV1pmQzFiOHAwVHkvRDFTNHlQL28ySjl1aVBmTHNmekNvU0ZkbjZ4c2lTRGlEbU0rbnBOU3FpTHJTWUdzZGIvZWdEdjRVaXRNOVZWbFRSVnYxZ3F6TlpNdVhTRVduRTQ4d3hwNVVlczIvd0tMK0RJUzl4ditsdFlSaVVMb2dBQWFraDhXR3kycWJhNzNESTBmOWtOOE1GeHRhelROTlpZaHFkb0dDWU9lbGwvd2tkVUJnNDBMSXFmYncvS1d2U0ZuN1d2bHlad2JkSGNVcXdMUjRHWFUrUHhRVGIrNXhHM1ZHUVJVemVjRjIrT2FsUUZGeS9SaGpoOHVIaW11eGJBeVJQWmlNSVRhVmhzZ3FsbzlPWE9uemJTVWdDSG1YSXloQVpMazBDVlhvbklWUVdoQzBGVXN1WGRwTHFVb2lCVTJiaDZudXV3c3ZBVWJiWHdveGRxdnM1UlM2S0JNTmZ5elQ5MUxjejlsTmxLd2JMWFFYR29vZjNoMnFqK1N6bFMrK25KY2VFSGlwc0xhZ1ljYWxUbTdLeVNtMmFub3Bkbjl3ND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699297352645222400","1001","000115","b7a2c3b25c9441b0a38d0a874ace268b","25f9e794323b453885f5181f1b624d0b","6ba95c3ff079addbb41f11abafdcf309","4df26a6fa586595b95b2fc13af908097","d5620d7cc0745e4ef0302a169301e6f0","61b9b61e7c69d918afd528bf4e7083b2","184b48703d3d6dd25028c2aa63840b1d","7505dbf9dd9b293008992535c613876b","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000115"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000115" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001"
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1151,9 +1178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1240,10 +1267,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
